--- a/Data_Example.xlsx
+++ b/Data_Example.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Desktop\ML_ACUEDUCTO_TURBIDEZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Migue\OneDrive\Escritorio\ML_ACUEDUCTO_TURBIDEZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F67EBFB-9A14-4276-835E-C713663814C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7F67EBFB-9A14-4276-835E-C713663814C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{6DB0F299-C900-4503-B40B-A823690E8069}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{0F7B166D-777B-4E2B-A9F7-1378F9CA8313}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F7B166D-777B-4E2B-A9F7-1378F9CA8313}"/>
   </bookViews>
   <sheets>
     <sheet name="sampleDB" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,9 +53,6 @@
     <t>FLOCULADOR (RPM)</t>
   </si>
   <si>
-    <t xml:space="preserve">Sensor de turbidez (NTU - Rango </t>
-  </si>
-  <si>
     <t>Turbidez (NTU)</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>Repeticion interna x100</t>
+  </si>
+  <si>
+    <t>Sensor de turbidez (NTU - Rango  0 -1)</t>
   </si>
 </sst>
 </file>
@@ -231,7 +231,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-419"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -326,7 +326,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="es-419"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -509,7 +509,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-419"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -547,7 +547,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="670893144"/>
@@ -626,7 +626,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-419"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -664,7 +664,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="670894456"/>
@@ -712,7 +712,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-419"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1620,24 +1620,24 @@
   <dimension ref="A2:AK115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="16.6328125" customWidth="1"/>
-    <col min="20" max="20" width="14.90625" customWidth="1"/>
-    <col min="21" max="21" width="13.54296875" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1647,11 +1647,11 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="AJ2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK2" s="7"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1681,9 +1681,9 @@
         <v>509</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="T5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U5" s="8"/>
       <c r="AJ5" s="1">
@@ -1693,12 +1693,12 @@
         <v>509</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="T6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ6" s="1">
         <v>480</v>
@@ -1707,9 +1707,9 @@
         <v>509</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1737,7 +1737,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1787,54 +1787,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f ca="1">RANDBETWEEN(0,100)/100</f>
-        <v>0.54</v>
+        <v>0.83</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" ref="B9:D9" ca="1" si="0">RANDBETWEEN(0,100)/100</f>
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75</v>
+        <v>0.05</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="E9" s="5">
         <f ca="1">(AJ3*A9)+AK3</f>
-        <v>768.2</v>
+        <v>907.4</v>
       </c>
       <c r="F9" s="5">
         <f ca="1">(AJ3*A9)+AK3</f>
-        <v>768.2</v>
+        <v>907.4</v>
       </c>
       <c r="G9" s="5">
         <f ca="1">(AJ3*B9)+AK3</f>
-        <v>537.79999999999995</v>
+        <v>571.4</v>
       </c>
       <c r="H9" s="5">
         <f ca="1">(AJ3*B9)+AK3</f>
-        <v>537.79999999999995</v>
+        <v>571.4</v>
       </c>
       <c r="I9" s="5">
         <f ca="1">(AJ4*C9)+AK4</f>
-        <v>869</v>
+        <v>533</v>
       </c>
       <c r="J9" s="5">
         <f ca="1">(AJ4*C9)+AK4</f>
-        <v>869</v>
+        <v>533</v>
       </c>
       <c r="K9" s="5">
         <f ca="1">(AJ4*D9)+AK4</f>
-        <v>917</v>
+        <v>941</v>
       </c>
       <c r="L9" s="5">
         <f ca="1">(AJ4*D9)+AK4</f>
-        <v>917</v>
+        <v>941</v>
       </c>
       <c r="T9" s="1">
         <v>0.2</v>
@@ -1849,54 +1849,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" ref="A10:D73" ca="1" si="1">RANDBETWEEN(0,100)/100</f>
-        <v>0.8</v>
+        <v>0.02</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26</v>
+        <v>0.06</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41</v>
+        <v>0.72</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="E10" s="5">
         <f ca="1">(AJ4*A10)+AK4</f>
-        <v>893</v>
+        <v>518.6</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ref="F10:F73" ca="1" si="2">(AJ4*A10)+AK4</f>
-        <v>893</v>
+        <v>518.6</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" ref="G10:G73" ca="1" si="3">(AJ4*B10)+AK4</f>
-        <v>633.79999999999995</v>
+        <v>537.79999999999995</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" ref="H10:H73" ca="1" si="4">(AJ4*B10)+AK4</f>
-        <v>633.79999999999995</v>
+        <v>537.79999999999995</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" ref="I10:I73" ca="1" si="5">(AJ5*C10)+AK5</f>
-        <v>705.8</v>
+        <v>854.59999999999991</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" ref="J10:J73" ca="1" si="6">(AJ5*C10)+AK5</f>
-        <v>705.8</v>
+        <v>854.59999999999991</v>
       </c>
       <c r="K10" s="5">
         <f t="shared" ref="K10:K73" ca="1" si="7">(AJ5*D10)+AK5</f>
-        <v>710.6</v>
+        <v>691.4</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" ref="L10:L73" ca="1" si="8">(AJ5*D10)+AK5</f>
-        <v>710.6</v>
+        <v>691.4</v>
       </c>
       <c r="T10" s="1">
         <v>0.3</v>
@@ -1911,54 +1911,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42</v>
+        <v>0.82</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88</v>
+        <v>0.6</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17</v>
+        <v>0.79</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42</v>
+        <v>0.01</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ref="E11:E73" ca="1" si="9">(AJ5*A11)+AK5</f>
-        <v>710.6</v>
+        <v>902.59999999999991</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>710.6</v>
+        <v>902.59999999999991</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>931.4</v>
+        <v>797</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>931.4</v>
+        <v>797</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>590.6</v>
+        <v>888.2</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>590.6</v>
+        <v>888.2</v>
       </c>
       <c r="K11" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>710.6</v>
+        <v>513.79999999999995</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>710.6</v>
+        <v>513.79999999999995</v>
       </c>
       <c r="T11" s="1">
         <v>0.4</v>
@@ -1973,54 +1973,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26</v>
+        <v>0.16</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74</v>
+        <v>0.31</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>825.8</v>
+        <v>782.59999999999991</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>825.8</v>
+        <v>782.59999999999991</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>633.79999999999995</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>633.79999999999995</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>825.8</v>
+        <v>773</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>825.8</v>
+        <v>773</v>
       </c>
       <c r="K12" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>864.2</v>
+        <v>657.8</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>864.2</v>
+        <v>657.8</v>
       </c>
       <c r="T12" s="1">
         <v>0.5</v>
@@ -2035,54 +2035,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91</v>
+        <v>0.45</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>945.8</v>
+        <v>725</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>945.8</v>
+        <v>725</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>590.6</v>
+        <v>518.6</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>590.6</v>
+        <v>518.6</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>571.4</v>
+        <v>557</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>571.4</v>
+        <v>557</v>
       </c>
       <c r="K13" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>701</v>
+        <v>677</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>701</v>
+        <v>677</v>
       </c>
       <c r="T13" s="1">
         <v>0.6</v>
@@ -2097,54 +2097,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24</v>
+        <v>0.47</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43</v>
+        <v>0.17</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0.36</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>624.20000000000005</v>
+        <v>734.6</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>624.20000000000005</v>
+        <v>734.6</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>605</v>
+        <v>681.8</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>605</v>
+        <v>681.8</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>715.4</v>
+        <v>590.6</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>715.4</v>
+        <v>590.6</v>
       </c>
       <c r="K14" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>989</v>
+        <v>681.8</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>989</v>
+        <v>681.8</v>
       </c>
       <c r="T14" s="1">
         <v>0.7</v>
@@ -2159,54 +2159,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85</v>
+        <v>0.38</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81</v>
+        <v>0.49</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.73</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>917</v>
+        <v>691.4</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>917</v>
+        <v>691.4</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>897.8</v>
+        <v>744.2</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>897.8</v>
+        <v>744.2</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>533</v>
+        <v>859.4</v>
       </c>
       <c r="J15" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>533</v>
+        <v>859.4</v>
       </c>
       <c r="K15" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>696.2</v>
+        <v>734.6</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>696.2</v>
+        <v>734.6</v>
       </c>
       <c r="T15" s="1">
         <v>0.8</v>
@@ -2221,54 +2221,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31</v>
+        <v>0.94</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39</v>
+        <v>0.01</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.27</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68</v>
+        <v>0.47</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>657.8</v>
+        <v>960.2</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>657.8</v>
+        <v>960.2</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>696.2</v>
+        <v>513.79999999999995</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>696.2</v>
+        <v>513.79999999999995</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>542.6</v>
+        <v>638.6</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>542.6</v>
+        <v>638.6</v>
       </c>
       <c r="K16" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>835.40000000000009</v>
+        <v>734.6</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>835.40000000000009</v>
+        <v>734.6</v>
       </c>
       <c r="T16" s="1">
         <v>0.9</v>
@@ -2283,54 +2283,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49</v>
+        <v>0.26</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" ca="1" si="1"/>
+        <v>0.77</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ca="1" si="1"/>
         <v>0.23</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.19</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.6</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>744.2</v>
+        <v>633.79999999999995</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>744.2</v>
+        <v>633.79999999999995</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>619.4</v>
+        <v>878.6</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>619.4</v>
+        <v>878.6</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>600.20000000000005</v>
+        <v>629</v>
       </c>
       <c r="J17" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>600.20000000000005</v>
+        <v>629</v>
       </c>
       <c r="K17" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>797</v>
+        <v>619.4</v>
       </c>
       <c r="L17" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>797</v>
+        <v>619.4</v>
       </c>
       <c r="T17" s="1">
         <v>1</v>
@@ -2345,54 +2345,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82</v>
+        <v>0.54</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88</v>
+        <v>0.01</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>902.59999999999991</v>
+        <v>768.2</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>902.59999999999991</v>
+        <v>768.2</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>528.20000000000005</v>
+        <v>681.8</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>528.20000000000005</v>
+        <v>681.8</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>869</v>
+        <v>921.8</v>
       </c>
       <c r="J18" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>869</v>
+        <v>921.8</v>
       </c>
       <c r="K18" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>931.4</v>
+        <v>513.79999999999995</v>
       </c>
       <c r="L18" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>931.4</v>
+        <v>513.79999999999995</v>
       </c>
       <c r="AJ18" s="1">
         <v>480</v>
@@ -2401,54 +2401,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78</v>
+        <v>0.12</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84</v>
+        <v>0.54</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>701</v>
+        <v>729.8</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>701</v>
+        <v>729.8</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>883.40000000000009</v>
+        <v>566.6</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>883.40000000000009</v>
+        <v>566.6</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>907.4</v>
+        <v>643.4</v>
       </c>
       <c r="J19" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>907.4</v>
+        <v>643.4</v>
       </c>
       <c r="K19" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>912.2</v>
+        <v>768.2</v>
       </c>
       <c r="L19" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>912.2</v>
+        <v>768.2</v>
       </c>
       <c r="AJ19" s="1">
         <v>480</v>
@@ -2457,61 +2457,61 @@
         <v>509</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99</v>
+        <v>0.47</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9</v>
+        <v>0.52</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57999999999999996</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>984.2</v>
+        <v>734.6</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>984.2</v>
+        <v>734.6</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>941</v>
+        <v>758.6</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>941</v>
+        <v>758.6</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>801.8</v>
+        <v>821</v>
       </c>
       <c r="J20" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>801.8</v>
+        <v>821</v>
       </c>
       <c r="K20" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>787.4</v>
+        <v>542.6</v>
       </c>
       <c r="L20" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>787.4</v>
+        <v>542.6</v>
       </c>
       <c r="R20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="AJ20" s="1">
         <v>480</v>
       </c>
@@ -2519,54 +2519,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>907.4</v>
+        <v>979.4</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>907.4</v>
+        <v>979.4</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>691.4</v>
+        <v>667.4</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>691.4</v>
+        <v>667.4</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>657.8</v>
+        <v>523.4</v>
       </c>
       <c r="J21" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>657.8</v>
+        <v>523.4</v>
       </c>
       <c r="K21" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>749</v>
+        <v>557</v>
       </c>
       <c r="L21" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>749</v>
+        <v>557</v>
       </c>
       <c r="R21" s="3">
         <v>480</v>
@@ -2581,54 +2581,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76</v>
+        <v>0.41</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.04</v>
+        <v>0.8</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65</v>
+        <v>0.89</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>873.8</v>
+        <v>705.8</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>873.8</v>
+        <v>705.8</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>528.20000000000005</v>
+        <v>893</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>528.20000000000005</v>
+        <v>893</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>528.20000000000005</v>
+        <v>705.8</v>
       </c>
       <c r="J22" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>528.20000000000005</v>
+        <v>705.8</v>
       </c>
       <c r="K22" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>821</v>
+        <v>936.2</v>
       </c>
       <c r="L22" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>821</v>
+        <v>936.2</v>
       </c>
       <c r="AJ22" s="1">
         <v>480</v>
@@ -2637,54 +2637,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24</v>
+        <v>0.73</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <v>0.63</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53</v>
+        <v>0.19</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>624.20000000000005</v>
+        <v>859.4</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>624.20000000000005</v>
+        <v>859.4</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>605</v>
+        <v>811.4</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>605</v>
+        <v>811.4</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>763.4</v>
+        <v>744.2</v>
       </c>
       <c r="J23" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>763.4</v>
+        <v>744.2</v>
       </c>
       <c r="K23" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>763.4</v>
+        <v>600.20000000000005</v>
       </c>
       <c r="L23" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>763.4</v>
+        <v>600.20000000000005</v>
       </c>
       <c r="AJ23" s="1">
         <v>480</v>
@@ -2693,54 +2693,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16</v>
+        <v>0.45</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91</v>
+        <v>0.45</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62</v>
+        <v>0.39</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>585.79999999999995</v>
+        <v>725</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>585.79999999999995</v>
+        <v>725</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>744.2</v>
+        <v>681.8</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>744.2</v>
+        <v>681.8</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>945.8</v>
+        <v>725</v>
       </c>
       <c r="J24" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>945.8</v>
+        <v>725</v>
       </c>
       <c r="K24" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>806.6</v>
+        <v>696.2</v>
       </c>
       <c r="L24" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>806.6</v>
+        <v>696.2</v>
       </c>
       <c r="AJ24" s="1">
         <v>480</v>
@@ -2749,54 +2749,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" ca="1" si="1"/>
+        <v>0.53</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.39</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" ca="1" si="1"/>
         <v>0.82</v>
       </c>
-      <c r="B25" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.43</v>
-      </c>
-      <c r="C25" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.16</v>
-      </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72</v>
+        <v>0.48</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>902.59999999999991</v>
+        <v>763.4</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>902.59999999999991</v>
+        <v>763.4</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>715.4</v>
+        <v>696.2</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>715.4</v>
+        <v>696.2</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>585.79999999999995</v>
+        <v>902.59999999999991</v>
       </c>
       <c r="J25" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>585.79999999999995</v>
+        <v>902.59999999999991</v>
       </c>
       <c r="K25" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>854.59999999999991</v>
+        <v>739.4</v>
       </c>
       <c r="L25" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>854.59999999999991</v>
+        <v>739.4</v>
       </c>
       <c r="AJ25" s="1">
         <v>480</v>
@@ -2805,54 +2805,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19</v>
+        <v>0.82</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>581</v>
+        <v>571.4</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>581</v>
+        <v>571.4</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>600.20000000000005</v>
+        <v>902.59999999999991</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>600.20000000000005</v>
+        <v>902.59999999999991</v>
       </c>
       <c r="I26" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>509</v>
+        <v>537.79999999999995</v>
       </c>
       <c r="J26" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>509</v>
+        <v>537.79999999999995</v>
       </c>
       <c r="K26" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>768.2</v>
+        <v>729.8</v>
       </c>
       <c r="L26" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>768.2</v>
+        <v>729.8</v>
       </c>
       <c r="AJ26" s="1">
         <v>480</v>
@@ -2861,54 +2861,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56000000000000005</v>
+        <v>0.68</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12</v>
+        <v>0.67</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66</v>
+        <v>0.25</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>777.8</v>
+        <v>835.40000000000009</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>777.8</v>
+        <v>835.40000000000009</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>557</v>
+        <v>681.8</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>557</v>
+        <v>681.8</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>566.6</v>
+        <v>830.6</v>
       </c>
       <c r="J27" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>566.6</v>
+        <v>830.6</v>
       </c>
       <c r="K27" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>825.8</v>
+        <v>629</v>
       </c>
       <c r="L27" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>825.8</v>
+        <v>629</v>
       </c>
       <c r="AJ27" s="1">
         <v>480</v>
@@ -2917,54 +2917,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83</v>
+        <v>0.1</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19</v>
+        <v>0.36</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56999999999999995</v>
+        <v>0.3</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>513.79999999999995</v>
+        <v>542.6</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>513.79999999999995</v>
+        <v>542.6</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>907.4</v>
+        <v>557</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>907.4</v>
+        <v>557</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>600.20000000000005</v>
+        <v>681.8</v>
       </c>
       <c r="J28" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>600.20000000000005</v>
+        <v>681.8</v>
       </c>
       <c r="K28" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>782.59999999999991</v>
+        <v>653</v>
       </c>
       <c r="L28" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>782.59999999999991</v>
+        <v>653</v>
       </c>
       <c r="AJ28" s="1">
         <v>480</v>
@@ -2973,54 +2973,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87</v>
+        <v>0.06</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55000000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78</v>
+        <v>0.92</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>926.6</v>
+        <v>537.79999999999995</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>926.6</v>
+        <v>537.79999999999995</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>600.20000000000005</v>
+        <v>667.4</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>600.20000000000005</v>
+        <v>667.4</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>773</v>
+        <v>557</v>
       </c>
       <c r="J29" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>773</v>
+        <v>557</v>
       </c>
       <c r="K29" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>883.40000000000009</v>
+        <v>950.6</v>
       </c>
       <c r="L29" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>883.40000000000009</v>
+        <v>950.6</v>
       </c>
       <c r="AJ29" s="1">
         <v>480</v>
@@ -3029,54 +3029,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22</v>
+        <v>0.73</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38</v>
+        <v>0.16</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78</v>
+        <v>0.3</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>528.20000000000005</v>
+        <v>518.6</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>528.20000000000005</v>
+        <v>518.6</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>614.6</v>
+        <v>859.4</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>614.6</v>
+        <v>859.4</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>691.4</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="J30" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>691.4</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="K30" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>883.40000000000009</v>
+        <v>653</v>
       </c>
       <c r="L30" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>883.40000000000009</v>
+        <v>653</v>
       </c>
       <c r="AJ30" s="1">
         <v>480</v>
@@ -3085,54 +3085,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47</v>
+        <v>0.64</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.23</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>734.6</v>
+        <v>816.2</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>734.6</v>
+        <v>816.2</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>869</v>
+        <v>787.4</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>869</v>
+        <v>787.4</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>542.6</v>
+        <v>619.4</v>
       </c>
       <c r="J31" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>542.6</v>
+        <v>619.4</v>
       </c>
       <c r="K31" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>518.6</v>
+        <v>989</v>
       </c>
       <c r="L31" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>518.6</v>
+        <v>989</v>
       </c>
       <c r="AJ31" s="1">
         <v>480</v>
@@ -3141,54 +3141,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98</v>
+        <v>0.32</v>
       </c>
       <c r="B32" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22</v>
+        <v>0.71</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51</v>
+        <v>0.34</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28000000000000003</v>
+        <v>0.97</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>979.4</v>
+        <v>662.6</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>979.4</v>
+        <v>662.6</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>614.6</v>
+        <v>849.8</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>614.6</v>
+        <v>849.8</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>753.8</v>
+        <v>672.2</v>
       </c>
       <c r="J32" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>753.8</v>
+        <v>672.2</v>
       </c>
       <c r="K32" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>643.4</v>
+        <v>974.59999999999991</v>
       </c>
       <c r="L32" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>643.4</v>
+        <v>974.59999999999991</v>
       </c>
       <c r="AJ32" s="1">
         <v>480</v>
@@ -3197,54 +3197,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
+        <v>0.39</v>
       </c>
       <c r="B33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49</v>
+        <v>0.69</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95</v>
+        <v>0.79</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>893</v>
+        <v>696.2</v>
       </c>
       <c r="F33" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>893</v>
+        <v>696.2</v>
       </c>
       <c r="G33" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>734.6</v>
+        <v>681.8</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>734.6</v>
+        <v>681.8</v>
       </c>
       <c r="I33" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>744.2</v>
+        <v>840.2</v>
       </c>
       <c r="J33" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>744.2</v>
+        <v>840.2</v>
       </c>
       <c r="K33" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>965</v>
+        <v>888.2</v>
       </c>
       <c r="L33" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>965</v>
+        <v>888.2</v>
       </c>
       <c r="AJ33" s="1">
         <v>480</v>
@@ -3253,54 +3253,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f t="shared" ca="1" si="1"/>
+        <v>0.85</v>
+      </c>
+      <c r="B34" s="4">
+        <f t="shared" ca="1" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="B34" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.36</v>
-      </c>
       <c r="C34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>701</v>
+        <v>917</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>701</v>
+        <v>917</v>
       </c>
       <c r="G34" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>681.8</v>
+        <v>701</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>681.8</v>
+        <v>701</v>
       </c>
       <c r="I34" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>869</v>
+        <v>859.4</v>
       </c>
       <c r="J34" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>869</v>
+        <v>859.4</v>
       </c>
       <c r="K34" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>619.4</v>
+        <v>638.6</v>
       </c>
       <c r="L34" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>619.4</v>
+        <v>638.6</v>
       </c>
       <c r="AJ34" s="1">
         <v>480</v>
@@ -3309,54 +3309,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="B35" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53</v>
+        <v>0.18</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>777.8</v>
+        <v>605</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>777.8</v>
+        <v>605</v>
       </c>
       <c r="G35" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>763.4</v>
+        <v>595.4</v>
       </c>
       <c r="H35" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>763.4</v>
+        <v>595.4</v>
       </c>
       <c r="I35" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>571.4</v>
+        <v>557</v>
       </c>
       <c r="J35" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>571.4</v>
+        <v>557</v>
       </c>
       <c r="K35" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>936.2</v>
+        <v>989</v>
       </c>
       <c r="L35" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>936.2</v>
+        <v>989</v>
       </c>
       <c r="AJ35" s="1">
         <v>480</v>
@@ -3365,54 +3365,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79</v>
+        <v>0.02</v>
       </c>
       <c r="B36" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53</v>
+        <v>0.11</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54</v>
+        <v>0.27</v>
       </c>
       <c r="D36" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>888.2</v>
+        <v>518.6</v>
       </c>
       <c r="F36" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>888.2</v>
+        <v>518.6</v>
       </c>
       <c r="G36" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>763.4</v>
+        <v>561.79999999999995</v>
       </c>
       <c r="H36" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>763.4</v>
+        <v>561.79999999999995</v>
       </c>
       <c r="I36" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>768.2</v>
+        <v>638.6</v>
       </c>
       <c r="J36" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>768.2</v>
+        <v>638.6</v>
       </c>
       <c r="K36" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>633.79999999999995</v>
+        <v>629</v>
       </c>
       <c r="L36" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>633.79999999999995</v>
+        <v>629</v>
       </c>
       <c r="AJ36" s="1">
         <v>480</v>
@@ -3421,54 +3421,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85</v>
+        <v>0.36</v>
       </c>
       <c r="B37" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37</v>
+        <v>0.54</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99</v>
+        <v>0.53</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86</v>
+        <v>0.63</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>917</v>
+        <v>681.8</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>917</v>
+        <v>681.8</v>
       </c>
       <c r="G37" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>686.6</v>
+        <v>768.2</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>686.6</v>
+        <v>768.2</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>984.2</v>
+        <v>763.4</v>
       </c>
       <c r="J37" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>984.2</v>
+        <v>763.4</v>
       </c>
       <c r="K37" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>921.8</v>
+        <v>811.4</v>
       </c>
       <c r="L37" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>921.8</v>
+        <v>811.4</v>
       </c>
       <c r="AJ37" s="1">
         <v>480</v>
@@ -3477,54 +3477,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f t="shared" ca="1" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="B38" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" ca="1" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="B38" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.96</v>
-      </c>
-      <c r="C38" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
-      </c>
       <c r="D38" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76</v>
+        <v>0.3</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>749</v>
+        <v>590.6</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>749</v>
+        <v>590.6</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>969.8</v>
+        <v>509</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>969.8</v>
+        <v>509</v>
       </c>
       <c r="I38" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>701</v>
+        <v>749</v>
       </c>
       <c r="J38" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>701</v>
+        <v>749</v>
       </c>
       <c r="K38" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>873.8</v>
+        <v>653</v>
       </c>
       <c r="L38" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>873.8</v>
+        <v>653</v>
       </c>
       <c r="AJ38" s="1">
         <v>480</v>
@@ -3533,54 +3533,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11</v>
+        <v>0.53</v>
       </c>
       <c r="B39" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56999999999999995</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>561.79999999999995</v>
+        <v>763.4</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>561.79999999999995</v>
+        <v>763.4</v>
       </c>
       <c r="G39" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>566.6</v>
+        <v>619.4</v>
       </c>
       <c r="H39" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>566.6</v>
+        <v>619.4</v>
       </c>
       <c r="I39" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>782.59999999999991</v>
+        <v>773</v>
       </c>
       <c r="J39" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>782.59999999999991</v>
+        <v>773</v>
       </c>
       <c r="K39" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>763.4</v>
+        <v>773</v>
       </c>
       <c r="L39" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>763.4</v>
+        <v>773</v>
       </c>
       <c r="AJ39" s="1">
         <v>480</v>
@@ -3589,54 +3589,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f t="shared" ca="1" si="1"/>
+        <v>0.93</v>
+      </c>
+      <c r="B40" s="4">
+        <f t="shared" ca="1" si="1"/>
         <v>0.68</v>
       </c>
-      <c r="B40" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.31</v>
-      </c>
       <c r="C40" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.69</v>
       </c>
       <c r="D40" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41</v>
+        <v>0.11</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>835.40000000000009</v>
+        <v>955.40000000000009</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>835.40000000000009</v>
+        <v>955.40000000000009</v>
       </c>
       <c r="G40" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>657.8</v>
+        <v>835.40000000000009</v>
       </c>
       <c r="H40" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>657.8</v>
+        <v>835.40000000000009</v>
       </c>
       <c r="I40" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>533</v>
+        <v>840.2</v>
       </c>
       <c r="J40" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>533</v>
+        <v>840.2</v>
       </c>
       <c r="K40" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>705.8</v>
+        <v>561.79999999999995</v>
       </c>
       <c r="L40" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>705.8</v>
+        <v>561.79999999999995</v>
       </c>
       <c r="AJ40" s="1">
         <v>480</v>
@@ -3645,54 +3645,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="B41" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23</v>
+        <v>0.82</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D41" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22</v>
+        <v>0.63</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>619.4</v>
+        <v>648.20000000000005</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>619.4</v>
+        <v>648.20000000000005</v>
       </c>
       <c r="G41" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>619.4</v>
+        <v>902.59999999999991</v>
       </c>
       <c r="H41" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>619.4</v>
+        <v>902.59999999999991</v>
       </c>
       <c r="I41" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>561.79999999999995</v>
+        <v>782.59999999999991</v>
       </c>
       <c r="J41" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>561.79999999999995</v>
+        <v>782.59999999999991</v>
       </c>
       <c r="K41" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>614.6</v>
+        <v>811.4</v>
       </c>
       <c r="L41" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>614.6</v>
+        <v>811.4</v>
       </c>
       <c r="AJ41" s="1">
         <v>480</v>
@@ -3701,54 +3701,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41</v>
+        <v>0.89</v>
       </c>
       <c r="B42" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41</v>
+        <v>0.1</v>
       </c>
       <c r="C42" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
+        <v>0.39</v>
       </c>
       <c r="D42" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="E42" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>705.8</v>
+        <v>936.2</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>705.8</v>
+        <v>936.2</v>
       </c>
       <c r="G42" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>705.8</v>
+        <v>557</v>
       </c>
       <c r="H42" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>705.8</v>
+        <v>557</v>
       </c>
       <c r="I42" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>557</v>
+        <v>696.2</v>
       </c>
       <c r="J42" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>557</v>
+        <v>696.2</v>
       </c>
       <c r="K42" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>667.4</v>
+        <v>561.79999999999995</v>
       </c>
       <c r="L42" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>667.4</v>
+        <v>561.79999999999995</v>
       </c>
       <c r="AJ42" s="1">
         <v>480</v>
@@ -3757,54 +3757,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="B43" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36</v>
+        <v>0.65</v>
       </c>
       <c r="C43" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7</v>
+        <v>0.04</v>
       </c>
       <c r="D43" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E43" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>936.2</v>
+        <v>878.6</v>
       </c>
       <c r="F43" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>936.2</v>
+        <v>878.6</v>
       </c>
       <c r="G43" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>681.8</v>
+        <v>821</v>
       </c>
       <c r="H43" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>681.8</v>
+        <v>821</v>
       </c>
       <c r="I43" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>845</v>
+        <v>528.20000000000005</v>
       </c>
       <c r="J43" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>845</v>
+        <v>528.20000000000005</v>
       </c>
       <c r="K43" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>744.2</v>
+        <v>782.59999999999991</v>
       </c>
       <c r="L43" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>744.2</v>
+        <v>782.59999999999991</v>
       </c>
       <c r="AJ43" s="1">
         <v>480</v>
@@ -3813,54 +3813,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="B44" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47</v>
+        <v>0.93</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>705.8</v>
+        <v>777.8</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>705.8</v>
+        <v>777.8</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>734.6</v>
+        <v>955.40000000000009</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>734.6</v>
+        <v>955.40000000000009</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>979.4</v>
+        <v>907.4</v>
       </c>
       <c r="J44" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>979.4</v>
+        <v>907.4</v>
       </c>
       <c r="K44" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>955.40000000000009</v>
+        <v>931.4</v>
       </c>
       <c r="L44" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>955.40000000000009</v>
+        <v>931.4</v>
       </c>
       <c r="AJ44" s="1">
         <v>480</v>
@@ -3869,54 +3869,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22</v>
+        <v>0.67</v>
       </c>
       <c r="B45" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14000000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="C45" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11</v>
+        <v>0.31</v>
       </c>
       <c r="D45" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="E45" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>614.6</v>
+        <v>830.6</v>
       </c>
       <c r="F45" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>614.6</v>
+        <v>830.6</v>
       </c>
       <c r="G45" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>576.20000000000005</v>
+        <v>619.4</v>
       </c>
       <c r="H45" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>576.20000000000005</v>
+        <v>619.4</v>
       </c>
       <c r="I45" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>561.79999999999995</v>
+        <v>657.8</v>
       </c>
       <c r="J45" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>561.79999999999995</v>
+        <v>657.8</v>
       </c>
       <c r="K45" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>715.4</v>
+        <v>667.4</v>
       </c>
       <c r="L45" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>715.4</v>
+        <v>667.4</v>
       </c>
       <c r="AJ45" s="1">
         <v>480</v>
@@ -3925,54 +3925,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98</v>
+        <v>0.11</v>
       </c>
       <c r="B46" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26</v>
+        <v>0.41</v>
       </c>
       <c r="C46" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43</v>
+        <v>0.74</v>
       </c>
       <c r="D46" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99</v>
+        <v>0.04</v>
       </c>
       <c r="E46" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>979.4</v>
+        <v>561.79999999999995</v>
       </c>
       <c r="F46" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>979.4</v>
+        <v>561.79999999999995</v>
       </c>
       <c r="G46" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>633.79999999999995</v>
+        <v>705.8</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>633.79999999999995</v>
+        <v>705.8</v>
       </c>
       <c r="I46" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>715.4</v>
+        <v>864.2</v>
       </c>
       <c r="J46" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>715.4</v>
+        <v>864.2</v>
       </c>
       <c r="K46" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>984.2</v>
+        <v>528.20000000000005</v>
       </c>
       <c r="L46" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>984.2</v>
+        <v>528.20000000000005</v>
       </c>
       <c r="AJ46" s="1">
         <v>480</v>
@@ -3981,54 +3981,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53</v>
+        <v>0.43</v>
       </c>
       <c r="B47" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31</v>
+        <v>0.95</v>
       </c>
       <c r="C47" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39</v>
+        <v>0.83</v>
       </c>
       <c r="D47" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92</v>
+        <v>0.13</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>763.4</v>
+        <v>715.4</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>763.4</v>
+        <v>715.4</v>
       </c>
       <c r="G47" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>657.8</v>
+        <v>965</v>
       </c>
       <c r="H47" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>657.8</v>
+        <v>965</v>
       </c>
       <c r="I47" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>696.2</v>
+        <v>907.4</v>
       </c>
       <c r="J47" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>696.2</v>
+        <v>907.4</v>
       </c>
       <c r="K47" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>950.6</v>
+        <v>571.4</v>
       </c>
       <c r="L47" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>950.6</v>
+        <v>571.4</v>
       </c>
       <c r="AJ47" s="1">
         <v>480</v>
@@ -4037,54 +4037,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.04</v>
+        <v>0.98</v>
       </c>
       <c r="B48" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93</v>
+        <v>0.08</v>
       </c>
       <c r="C48" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16</v>
+        <v>0.46</v>
       </c>
       <c r="D48" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>528.20000000000005</v>
+        <v>979.4</v>
       </c>
       <c r="F48" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>528.20000000000005</v>
+        <v>979.4</v>
       </c>
       <c r="G48" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>955.40000000000009</v>
+        <v>547.4</v>
       </c>
       <c r="H48" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>955.40000000000009</v>
+        <v>547.4</v>
       </c>
       <c r="I48" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>585.79999999999995</v>
+        <v>729.8</v>
       </c>
       <c r="J48" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>585.79999999999995</v>
+        <v>729.8</v>
       </c>
       <c r="K48" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>912.2</v>
+        <v>931.4</v>
       </c>
       <c r="L48" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>912.2</v>
+        <v>931.4</v>
       </c>
       <c r="AJ48" s="1">
         <v>480</v>
@@ -4093,54 +4093,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="B49" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C49" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42</v>
+        <v>0.59</v>
       </c>
       <c r="D49" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69</v>
+        <v>0.77</v>
       </c>
       <c r="E49" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>509</v>
+        <v>869</v>
       </c>
       <c r="F49" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>509</v>
+        <v>869</v>
       </c>
       <c r="G49" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>696.2</v>
+        <v>576.20000000000005</v>
       </c>
       <c r="H49" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>696.2</v>
+        <v>576.20000000000005</v>
       </c>
       <c r="I49" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>710.6</v>
+        <v>792.2</v>
       </c>
       <c r="J49" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>710.6</v>
+        <v>792.2</v>
       </c>
       <c r="K49" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>840.2</v>
+        <v>878.6</v>
       </c>
       <c r="L49" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>840.2</v>
+        <v>878.6</v>
       </c>
       <c r="AJ49" s="1">
         <v>480</v>
@@ -4149,54 +4149,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="B50" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="C50" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="D50" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54</v>
+        <v>0.04</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>768.2</v>
+        <v>989</v>
       </c>
       <c r="F50" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>768.2</v>
+        <v>989</v>
       </c>
       <c r="G50" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>557</v>
+        <v>595.4</v>
       </c>
       <c r="H50" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>557</v>
+        <v>595.4</v>
       </c>
       <c r="I50" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>907.4</v>
+        <v>888.2</v>
       </c>
       <c r="J50" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>907.4</v>
+        <v>888.2</v>
       </c>
       <c r="K50" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>768.2</v>
+        <v>528.20000000000005</v>
       </c>
       <c r="L50" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>768.2</v>
+        <v>528.20000000000005</v>
       </c>
       <c r="AJ50" s="1">
         <v>480</v>
@@ -4205,10 +4205,10 @@
         <v>509</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="B51" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -4216,19 +4216,19 @@
       </c>
       <c r="C51" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="D51" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96</v>
+        <v>0.16</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.6</v>
+        <v>509</v>
       </c>
       <c r="F51" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>566.6</v>
+        <v>509</v>
       </c>
       <c r="G51" s="5">
         <f t="shared" ca="1" si="3"/>
@@ -4240,19 +4240,19 @@
       </c>
       <c r="I51" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>869</v>
+        <v>984.2</v>
       </c>
       <c r="J51" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>869</v>
+        <v>984.2</v>
       </c>
       <c r="K51" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>969.8</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="L51" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>969.8</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="AJ51" s="1">
         <v>480</v>
@@ -4261,54 +4261,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98</v>
+        <v>0.12</v>
       </c>
       <c r="B52" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45</v>
+        <v>0.13</v>
       </c>
       <c r="C52" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="D52" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>0.82</v>
       </c>
       <c r="E52" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>979.4</v>
+        <v>566.6</v>
       </c>
       <c r="F52" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>979.4</v>
+        <v>566.6</v>
       </c>
       <c r="G52" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>725</v>
+        <v>571.4</v>
       </c>
       <c r="H52" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>725</v>
+        <v>571.4</v>
       </c>
       <c r="I52" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>955.40000000000009</v>
+        <v>989</v>
       </c>
       <c r="J52" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>955.40000000000009</v>
+        <v>989</v>
       </c>
       <c r="K52" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>701</v>
+        <v>902.59999999999991</v>
       </c>
       <c r="L52" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>701</v>
+        <v>902.59999999999991</v>
       </c>
       <c r="AJ52" s="1">
         <v>480</v>
@@ -4317,22 +4317,22 @@
         <v>509</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0.42</v>
       </c>
       <c r="B53" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77</v>
+        <v>0.47</v>
       </c>
       <c r="C53" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D53" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="E53" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4344,27 +4344,27 @@
       </c>
       <c r="G53" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>878.6</v>
+        <v>734.6</v>
       </c>
       <c r="H53" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>878.6</v>
+        <v>734.6</v>
       </c>
       <c r="I53" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>989</v>
+        <v>701</v>
       </c>
       <c r="J53" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>989</v>
+        <v>701</v>
       </c>
       <c r="K53" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>941</v>
+        <v>513.79999999999995</v>
       </c>
       <c r="L53" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>941</v>
+        <v>513.79999999999995</v>
       </c>
       <c r="AJ53" s="1">
         <v>480</v>
@@ -4373,54 +4373,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B54" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="C54" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
+        <v>0.59</v>
       </c>
       <c r="D54" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="E54" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>696.2</v>
+        <v>643.4</v>
       </c>
       <c r="F54" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>696.2</v>
+        <v>643.4</v>
       </c>
       <c r="G54" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>662.6</v>
+        <v>825.8</v>
       </c>
       <c r="H54" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>662.6</v>
+        <v>825.8</v>
       </c>
       <c r="I54" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>893</v>
+        <v>792.2</v>
       </c>
       <c r="J54" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>893</v>
+        <v>792.2</v>
       </c>
       <c r="K54" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>691.4</v>
+        <v>533</v>
       </c>
       <c r="L54" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>691.4</v>
+        <v>533</v>
       </c>
       <c r="AJ54" s="1">
         <v>480</v>
@@ -4429,54 +4429,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76</v>
+        <v>0.22</v>
       </c>
       <c r="B55" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46</v>
+        <v>0.94</v>
       </c>
       <c r="C55" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43</v>
+        <v>0.98</v>
       </c>
       <c r="D55" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="E55" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>873.8</v>
+        <v>614.6</v>
       </c>
       <c r="F55" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>873.8</v>
+        <v>614.6</v>
       </c>
       <c r="G55" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>729.8</v>
+        <v>960.2</v>
       </c>
       <c r="H55" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>729.8</v>
+        <v>960.2</v>
       </c>
       <c r="I55" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>715.4</v>
+        <v>979.4</v>
       </c>
       <c r="J55" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>715.4</v>
+        <v>979.4</v>
       </c>
       <c r="K55" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>744.2</v>
+        <v>763.4</v>
       </c>
       <c r="L55" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>744.2</v>
+        <v>763.4</v>
       </c>
       <c r="AJ55" s="1">
         <v>480</v>
@@ -4485,54 +4485,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B56" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56999999999999995</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C56" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57999999999999996</v>
+        <v>0.65</v>
       </c>
       <c r="D56" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="E56" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>950.6</v>
+        <v>773</v>
       </c>
       <c r="F56" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>950.6</v>
+        <v>773</v>
       </c>
       <c r="G56" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>782.59999999999991</v>
+        <v>643.4</v>
       </c>
       <c r="H56" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>782.59999999999991</v>
+        <v>643.4</v>
       </c>
       <c r="I56" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>787.4</v>
+        <v>821</v>
       </c>
       <c r="J56" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>787.4</v>
+        <v>821</v>
       </c>
       <c r="K56" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>609.79999999999995</v>
+        <v>605</v>
       </c>
       <c r="L56" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>609.79999999999995</v>
+        <v>605</v>
       </c>
       <c r="AJ56" s="1">
         <v>480</v>
@@ -4541,54 +4541,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.06</v>
+        <v>0.88</v>
       </c>
       <c r="B57" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="C57" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.21</v>
       </c>
       <c r="D57" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85</v>
+        <v>0.94</v>
       </c>
       <c r="E57" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>537.79999999999995</v>
+        <v>931.4</v>
       </c>
       <c r="F57" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>537.79999999999995</v>
+        <v>931.4</v>
       </c>
       <c r="G57" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>883.40000000000009</v>
+        <v>989</v>
       </c>
       <c r="H57" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>883.40000000000009</v>
+        <v>989</v>
       </c>
       <c r="I57" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>542.6</v>
+        <v>609.79999999999995</v>
       </c>
       <c r="J57" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>542.6</v>
+        <v>609.79999999999995</v>
       </c>
       <c r="K57" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>917</v>
+        <v>960.2</v>
       </c>
       <c r="L57" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>917</v>
+        <v>960.2</v>
       </c>
       <c r="AJ57" s="1">
         <v>480</v>
@@ -4597,54 +4597,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="B58" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77</v>
+        <v>0.64</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62</v>
+        <v>0.84</v>
       </c>
       <c r="E58" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>854.59999999999991</v>
+        <v>921.8</v>
       </c>
       <c r="F58" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>854.59999999999991</v>
+        <v>921.8</v>
       </c>
       <c r="G58" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>878.6</v>
+        <v>816.2</v>
       </c>
       <c r="H58" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>878.6</v>
+        <v>816.2</v>
       </c>
       <c r="I58" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>667.4</v>
+        <v>657.8</v>
       </c>
       <c r="J58" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>667.4</v>
+        <v>657.8</v>
       </c>
       <c r="K58" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>806.6</v>
+        <v>912.2</v>
       </c>
       <c r="L58" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>806.6</v>
+        <v>912.2</v>
       </c>
       <c r="AJ58" s="1">
         <v>480</v>
@@ -4653,22 +4653,22 @@
         <v>509</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0.99</v>
       </c>
       <c r="B59" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.02</v>
+        <v>0.68</v>
       </c>
       <c r="C59" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
       <c r="D59" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="E59" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4680,27 +4680,27 @@
       </c>
       <c r="G59" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>518.6</v>
+        <v>835.40000000000009</v>
       </c>
       <c r="H59" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>518.6</v>
+        <v>835.40000000000009</v>
       </c>
       <c r="I59" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>657.8</v>
+        <v>528.20000000000005</v>
       </c>
       <c r="J59" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>657.8</v>
+        <v>528.20000000000005</v>
       </c>
       <c r="K59" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>758.6</v>
+        <v>797</v>
       </c>
       <c r="L59" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>758.6</v>
+        <v>797</v>
       </c>
       <c r="AJ59" s="1">
         <v>480</v>
@@ -4709,22 +4709,22 @@
         <v>509</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0.01</v>
       </c>
       <c r="B60" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77</v>
+        <v>0.31</v>
       </c>
       <c r="C60" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21</v>
+        <v>0.84</v>
       </c>
       <c r="D60" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="E60" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -4736,27 +4736,27 @@
       </c>
       <c r="G60" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>878.6</v>
+        <v>657.8</v>
       </c>
       <c r="H60" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>878.6</v>
+        <v>657.8</v>
       </c>
       <c r="I60" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>609.79999999999995</v>
+        <v>912.2</v>
       </c>
       <c r="J60" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>609.79999999999995</v>
+        <v>912.2</v>
       </c>
       <c r="K60" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>686.6</v>
+        <v>657.8</v>
       </c>
       <c r="L60" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>686.6</v>
+        <v>657.8</v>
       </c>
       <c r="AJ60" s="1">
         <v>480</v>
@@ -4765,54 +4765,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="B61" s="4">
         <f t="shared" ca="1" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C61" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="D61" s="4">
+        <f t="shared" ca="1" si="1"/>
         <v>0.2</v>
-      </c>
-      <c r="C61" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.54</v>
-      </c>
-      <c r="D61" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.28999999999999998</v>
       </c>
       <c r="E61" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>773</v>
+        <v>797</v>
       </c>
       <c r="F61" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>773</v>
+        <v>797</v>
       </c>
       <c r="G61" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>605</v>
+        <v>643.4</v>
       </c>
       <c r="H61" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>605</v>
+        <v>643.4</v>
       </c>
       <c r="I61" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>768.2</v>
+        <v>523.4</v>
       </c>
       <c r="J61" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>768.2</v>
+        <v>523.4</v>
       </c>
       <c r="K61" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>648.20000000000005</v>
+        <v>605</v>
       </c>
       <c r="L61" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>648.20000000000005</v>
+        <v>605</v>
       </c>
       <c r="AJ61" s="1">
         <v>480</v>
@@ -4821,54 +4821,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="B62" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48</v>
+        <v>0.83</v>
       </c>
       <c r="C62" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="D62" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="E62" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>945.8</v>
+        <v>941</v>
       </c>
       <c r="F62" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>945.8</v>
+        <v>941</v>
       </c>
       <c r="G62" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>739.4</v>
+        <v>907.4</v>
       </c>
       <c r="H62" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>739.4</v>
+        <v>907.4</v>
       </c>
       <c r="I62" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>571.4</v>
+        <v>720.2</v>
       </c>
       <c r="J62" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>571.4</v>
+        <v>720.2</v>
       </c>
       <c r="K62" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>917</v>
+        <v>893</v>
       </c>
       <c r="L62" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>917</v>
+        <v>893</v>
       </c>
       <c r="AJ62" s="1">
         <v>480</v>
@@ -4877,54 +4877,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="B63" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C63" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="D63" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9</v>
+        <v>0.16</v>
       </c>
       <c r="E63" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>701</v>
+        <v>744.2</v>
       </c>
       <c r="F63" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>701</v>
+        <v>744.2</v>
       </c>
       <c r="G63" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>677</v>
+        <v>576.20000000000005</v>
       </c>
       <c r="H63" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>677</v>
+        <v>576.20000000000005</v>
       </c>
       <c r="I63" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>590.6</v>
+        <v>600.20000000000005</v>
       </c>
       <c r="J63" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>590.6</v>
+        <v>600.20000000000005</v>
       </c>
       <c r="K63" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>941</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="L63" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>941</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="AJ63" s="1">
         <v>480</v>
@@ -4933,54 +4933,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
+        <v>0.74</v>
       </c>
       <c r="B64" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49</v>
+        <v>0.79</v>
       </c>
       <c r="C64" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.06</v>
+        <v>0.73</v>
       </c>
       <c r="D64" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52</v>
+        <v>0.24</v>
       </c>
       <c r="E64" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>557</v>
+        <v>864.2</v>
       </c>
       <c r="F64" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>557</v>
+        <v>864.2</v>
       </c>
       <c r="G64" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>744.2</v>
+        <v>888.2</v>
       </c>
       <c r="H64" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>744.2</v>
+        <v>888.2</v>
       </c>
       <c r="I64" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>537.79999999999995</v>
+        <v>859.4</v>
       </c>
       <c r="J64" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>537.79999999999995</v>
+        <v>859.4</v>
       </c>
       <c r="K64" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>758.6</v>
+        <v>624.20000000000005</v>
       </c>
       <c r="L64" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>758.6</v>
+        <v>624.20000000000005</v>
       </c>
       <c r="AJ64" s="1">
         <v>480</v>
@@ -4989,54 +4989,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42</v>
+        <v>0.87</v>
       </c>
       <c r="B65" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="C65" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48</v>
+        <v>0.84</v>
       </c>
       <c r="D65" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="E65" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>710.6</v>
+        <v>926.6</v>
       </c>
       <c r="F65" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>710.6</v>
+        <v>926.6</v>
       </c>
       <c r="G65" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>797</v>
+        <v>653</v>
       </c>
       <c r="H65" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>797</v>
+        <v>653</v>
       </c>
       <c r="I65" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>739.4</v>
+        <v>912.2</v>
       </c>
       <c r="J65" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>739.4</v>
+        <v>912.2</v>
       </c>
       <c r="K65" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>701</v>
+        <v>624.20000000000005</v>
       </c>
       <c r="L65" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>701</v>
+        <v>624.20000000000005</v>
       </c>
       <c r="AJ65" s="1">
         <v>480</v>
@@ -5045,54 +5045,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26</v>
+        <v>0.95</v>
       </c>
       <c r="B66" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="C66" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="D66" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52</v>
+        <v>0.59</v>
       </c>
       <c r="E66" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>633.79999999999995</v>
+        <v>965</v>
       </c>
       <c r="F66" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>633.79999999999995</v>
+        <v>965</v>
       </c>
       <c r="G66" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>845</v>
+        <v>955.40000000000009</v>
       </c>
       <c r="H66" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>845</v>
+        <v>955.40000000000009</v>
       </c>
       <c r="I66" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>739.4</v>
+        <v>715.4</v>
       </c>
       <c r="J66" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>739.4</v>
+        <v>715.4</v>
       </c>
       <c r="K66" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>758.6</v>
+        <v>792.2</v>
       </c>
       <c r="L66" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>758.6</v>
+        <v>792.2</v>
       </c>
       <c r="AJ66" s="1">
         <v>480</v>
@@ -5101,54 +5101,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56999999999999995</v>
+        <v>0.31</v>
       </c>
       <c r="B67" s="4">
         <f t="shared" ca="1" si="1"/>
+        <v>0.49</v>
+      </c>
+      <c r="C67" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="D67" s="4">
+        <f t="shared" ca="1" si="1"/>
         <v>0.71</v>
-      </c>
-      <c r="C67" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D67" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
       </c>
       <c r="E67" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>782.59999999999991</v>
+        <v>657.8</v>
       </c>
       <c r="F67" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>782.59999999999991</v>
+        <v>657.8</v>
       </c>
       <c r="G67" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>849.8</v>
+        <v>744.2</v>
       </c>
       <c r="H67" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>849.8</v>
+        <v>744.2</v>
       </c>
       <c r="I67" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>787.4</v>
+        <v>662.6</v>
       </c>
       <c r="J67" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>787.4</v>
+        <v>662.6</v>
       </c>
       <c r="K67" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>629</v>
+        <v>849.8</v>
       </c>
       <c r="L67" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>629</v>
+        <v>849.8</v>
       </c>
       <c r="AJ67" s="1">
         <v>480</v>
@@ -5157,54 +5157,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54</v>
+        <v>0.82</v>
       </c>
       <c r="B68" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83</v>
+        <v>0.01</v>
       </c>
       <c r="C68" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63</v>
+        <v>0.18</v>
       </c>
       <c r="D68" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="E68" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>768.2</v>
+        <v>902.59999999999991</v>
       </c>
       <c r="F68" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>768.2</v>
+        <v>902.59999999999991</v>
       </c>
       <c r="G68" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>907.4</v>
+        <v>513.79999999999995</v>
       </c>
       <c r="H68" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>907.4</v>
+        <v>513.79999999999995</v>
       </c>
       <c r="I68" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>811.4</v>
+        <v>595.4</v>
       </c>
       <c r="J68" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>811.4</v>
+        <v>595.4</v>
       </c>
       <c r="K68" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>811.4</v>
+        <v>912.2</v>
       </c>
       <c r="L68" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>811.4</v>
+        <v>912.2</v>
       </c>
       <c r="AJ68" s="1">
         <v>480</v>
@@ -5213,54 +5213,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35</v>
+        <v>0.61</v>
       </c>
       <c r="B69" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="C69" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
+        <v>0.11</v>
       </c>
       <c r="D69" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="E69" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>677</v>
+        <v>801.8</v>
       </c>
       <c r="F69" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>677</v>
+        <v>801.8</v>
       </c>
       <c r="G69" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>725</v>
+        <v>662.6</v>
       </c>
       <c r="H69" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>725</v>
+        <v>662.6</v>
       </c>
       <c r="I69" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>893</v>
+        <v>561.79999999999995</v>
       </c>
       <c r="J69" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>893</v>
+        <v>561.79999999999995</v>
       </c>
       <c r="K69" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>893</v>
+        <v>854.59999999999991</v>
       </c>
       <c r="L69" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>893</v>
+        <v>854.59999999999991</v>
       </c>
       <c r="AJ69" s="1">
         <v>480</v>
@@ -5269,54 +5269,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="B70" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97</v>
+        <v>0.18</v>
       </c>
       <c r="C70" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="D70" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98</v>
+        <v>0.59</v>
       </c>
       <c r="E70" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>667.4</v>
+        <v>686.6</v>
       </c>
       <c r="F70" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>667.4</v>
+        <v>686.6</v>
       </c>
       <c r="G70" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>974.59999999999991</v>
+        <v>595.4</v>
       </c>
       <c r="H70" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>974.59999999999991</v>
+        <v>595.4</v>
       </c>
       <c r="I70" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>605</v>
+        <v>547.4</v>
       </c>
       <c r="J70" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>605</v>
+        <v>547.4</v>
       </c>
       <c r="K70" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>979.4</v>
+        <v>792.2</v>
       </c>
       <c r="L70" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>979.4</v>
+        <v>792.2</v>
       </c>
       <c r="AJ70" s="1">
         <v>480</v>
@@ -5325,22 +5325,22 @@
         <v>509</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0.72</v>
       </c>
       <c r="B71" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49</v>
+        <v>0.32</v>
       </c>
       <c r="C71" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="D71" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37</v>
+        <v>0.01</v>
       </c>
       <c r="E71" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -5352,27 +5352,27 @@
       </c>
       <c r="G71" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>744.2</v>
+        <v>662.6</v>
       </c>
       <c r="H71" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>744.2</v>
+        <v>662.6</v>
       </c>
       <c r="I71" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>864.2</v>
+        <v>859.4</v>
       </c>
       <c r="J71" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>864.2</v>
+        <v>859.4</v>
       </c>
       <c r="K71" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>686.6</v>
+        <v>513.79999999999995</v>
       </c>
       <c r="L71" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>686.6</v>
+        <v>513.79999999999995</v>
       </c>
       <c r="AJ71" s="1">
         <v>480</v>
@@ -5381,14 +5381,14 @@
         <v>509</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6</v>
+        <v>0.46</v>
       </c>
       <c r="B72" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81</v>
+        <v>0.16</v>
       </c>
       <c r="C72" s="4">
         <f t="shared" ca="1" si="1"/>
@@ -5396,23 +5396,23 @@
       </c>
       <c r="D72" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E72" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>797</v>
+        <v>729.8</v>
       </c>
       <c r="F72" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>797</v>
+        <v>729.8</v>
       </c>
       <c r="G72" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>897.8</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="H72" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>897.8</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="I72" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -5424,11 +5424,11 @@
       </c>
       <c r="K72" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>557</v>
+        <v>509</v>
       </c>
       <c r="L72" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>557</v>
+        <v>509</v>
       </c>
       <c r="AJ72" s="1">
         <v>480</v>
@@ -5437,54 +5437,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77</v>
+        <v>0.37</v>
       </c>
       <c r="B73" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37</v>
+        <v>0.82</v>
       </c>
       <c r="C73" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43</v>
+        <v>0.71</v>
       </c>
       <c r="D73" s="4">
         <f t="shared" ref="D73" ca="1" si="10">RANDBETWEEN(0,100)/100</f>
-        <v>0.63</v>
+        <v>0.98</v>
       </c>
       <c r="E73" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>878.6</v>
+        <v>686.6</v>
       </c>
       <c r="F73" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>878.6</v>
+        <v>686.6</v>
       </c>
       <c r="G73" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>686.6</v>
+        <v>902.59999999999991</v>
       </c>
       <c r="H73" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>686.6</v>
+        <v>902.59999999999991</v>
       </c>
       <c r="I73" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>715.4</v>
+        <v>849.8</v>
       </c>
       <c r="J73" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>715.4</v>
+        <v>849.8</v>
       </c>
       <c r="K73" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>811.4</v>
+        <v>979.4</v>
       </c>
       <c r="L73" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>811.4</v>
+        <v>979.4</v>
       </c>
       <c r="AJ73" s="1">
         <v>480</v>
@@ -5493,54 +5493,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <f t="shared" ref="A74:D101" ca="1" si="11">RANDBETWEEN(0,100)/100</f>
-        <v>0.64</v>
+        <v>0.82</v>
       </c>
       <c r="B74" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="C74" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.72</v>
+        <v>0.37</v>
       </c>
       <c r="D74" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.68</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E74" s="5">
         <f t="shared" ref="E74:E109" ca="1" si="12">(AJ68*A74)+AK68</f>
-        <v>816.2</v>
+        <v>902.59999999999991</v>
       </c>
       <c r="F74" s="5">
         <f t="shared" ref="F74:F109" ca="1" si="13">(AJ68*A74)+AK68</f>
-        <v>816.2</v>
+        <v>902.59999999999991</v>
       </c>
       <c r="G74" s="5">
         <f t="shared" ref="G74:G109" ca="1" si="14">(AJ68*B74)+AK68</f>
-        <v>849.8</v>
+        <v>955.40000000000009</v>
       </c>
       <c r="H74" s="5">
         <f t="shared" ref="H74:H109" ca="1" si="15">(AJ68*B74)+AK68</f>
-        <v>849.8</v>
+        <v>955.40000000000009</v>
       </c>
       <c r="I74" s="5">
         <f t="shared" ref="I74:I109" ca="1" si="16">(AJ69*C74)+AK69</f>
-        <v>854.59999999999991</v>
+        <v>686.6</v>
       </c>
       <c r="J74" s="5">
         <f t="shared" ref="J74:J109" ca="1" si="17">(AJ69*C74)+AK69</f>
-        <v>854.59999999999991</v>
+        <v>686.6</v>
       </c>
       <c r="K74" s="5">
         <f t="shared" ref="K74:K109" ca="1" si="18">(AJ69*D74)+AK69</f>
-        <v>835.40000000000009</v>
+        <v>787.4</v>
       </c>
       <c r="L74" s="5">
         <f t="shared" ref="L74:L109" ca="1" si="19">(AJ69*D74)+AK69</f>
-        <v>835.40000000000009</v>
+        <v>787.4</v>
       </c>
       <c r="AJ74" s="1">
         <v>480</v>
@@ -5549,54 +5549,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.02</v>
+        <v>0.82</v>
       </c>
       <c r="B75" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.14000000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="C75" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="D75" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86</v>
+        <v>0.45</v>
       </c>
       <c r="E75" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>518.6</v>
+        <v>902.59999999999991</v>
       </c>
       <c r="F75" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>518.6</v>
+        <v>902.59999999999991</v>
       </c>
       <c r="G75" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>576.20000000000005</v>
+        <v>816.2</v>
       </c>
       <c r="H75" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>576.20000000000005</v>
+        <v>816.2</v>
       </c>
       <c r="I75" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>921.8</v>
+        <v>888.2</v>
       </c>
       <c r="J75" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>921.8</v>
+        <v>888.2</v>
       </c>
       <c r="K75" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>921.8</v>
+        <v>725</v>
       </c>
       <c r="L75" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>921.8</v>
+        <v>725</v>
       </c>
       <c r="AJ75" s="1">
         <v>480</v>
@@ -5605,54 +5605,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.71</v>
+        <v>0.24</v>
       </c>
       <c r="B76" s="4">
         <f t="shared" ca="1" si="11"/>
+        <v>0.88</v>
+      </c>
+      <c r="C76" s="4">
+        <f t="shared" ca="1" si="11"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="C76" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.99</v>
-      </c>
       <c r="D76" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.21</v>
+        <v>0.63</v>
       </c>
       <c r="E76" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>849.8</v>
+        <v>624.20000000000005</v>
       </c>
       <c r="F76" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>849.8</v>
+        <v>624.20000000000005</v>
       </c>
       <c r="G76" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>777.8</v>
+        <v>931.4</v>
       </c>
       <c r="H76" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>777.8</v>
+        <v>931.4</v>
       </c>
       <c r="I76" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>984.2</v>
+        <v>777.8</v>
       </c>
       <c r="J76" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>984.2</v>
+        <v>777.8</v>
       </c>
       <c r="K76" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>609.79999999999995</v>
+        <v>811.4</v>
       </c>
       <c r="L76" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>609.79999999999995</v>
+        <v>811.4</v>
       </c>
       <c r="AJ76" s="1">
         <v>480</v>
@@ -5661,54 +5661,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.05</v>
+        <v>0.41</v>
       </c>
       <c r="B77" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.66</v>
+        <v>0.1</v>
       </c>
       <c r="C77" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.72</v>
+        <v>0.09</v>
       </c>
       <c r="D77" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.62</v>
+        <v>0.01</v>
       </c>
       <c r="E77" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>533</v>
+        <v>705.8</v>
       </c>
       <c r="F77" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>533</v>
+        <v>705.8</v>
       </c>
       <c r="G77" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>825.8</v>
+        <v>557</v>
       </c>
       <c r="H77" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>825.8</v>
+        <v>557</v>
       </c>
       <c r="I77" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>854.59999999999991</v>
+        <v>552.20000000000005</v>
       </c>
       <c r="J77" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>854.59999999999991</v>
+        <v>552.20000000000005</v>
       </c>
       <c r="K77" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>806.6</v>
+        <v>513.79999999999995</v>
       </c>
       <c r="L77" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>806.6</v>
+        <v>513.79999999999995</v>
       </c>
       <c r="AJ77" s="1">
         <v>480</v>
@@ -5717,54 +5717,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.3</v>
+        <v>0.49</v>
       </c>
       <c r="B78" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.65</v>
       </c>
       <c r="C78" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.28999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="D78" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.52</v>
+        <v>0.22</v>
       </c>
       <c r="E78" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>653</v>
+        <v>744.2</v>
       </c>
       <c r="F78" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>653</v>
+        <v>744.2</v>
       </c>
       <c r="G78" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>542.6</v>
+        <v>821</v>
       </c>
       <c r="H78" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>542.6</v>
+        <v>821</v>
       </c>
       <c r="I78" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>648.20000000000005</v>
+        <v>629</v>
       </c>
       <c r="J78" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>648.20000000000005</v>
+        <v>629</v>
       </c>
       <c r="K78" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>758.6</v>
+        <v>614.6</v>
       </c>
       <c r="L78" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>758.6</v>
+        <v>614.6</v>
       </c>
       <c r="AJ78" s="1">
         <v>480</v>
@@ -5773,54 +5773,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.42</v>
+        <v>0.81</v>
       </c>
       <c r="B79" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="C79" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D79" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="E79" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>710.6</v>
+        <v>897.8</v>
       </c>
       <c r="F79" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>710.6</v>
+        <v>897.8</v>
       </c>
       <c r="G79" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>629</v>
+        <v>552.20000000000005</v>
       </c>
       <c r="H79" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>629</v>
+        <v>552.20000000000005</v>
       </c>
       <c r="I79" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>845</v>
+        <v>749</v>
       </c>
       <c r="J79" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>845</v>
+        <v>749</v>
       </c>
       <c r="K79" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>989</v>
+        <v>907.4</v>
       </c>
       <c r="L79" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>989</v>
+        <v>907.4</v>
       </c>
       <c r="AJ79" s="1">
         <v>480</v>
@@ -5829,54 +5829,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
       <c r="B80" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.28000000000000003</v>
+        <v>0.05</v>
       </c>
       <c r="C80" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.61</v>
+        <v>0.38</v>
       </c>
       <c r="D80" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.35</v>
+        <v>0.71</v>
       </c>
       <c r="E80" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>744.2</v>
+        <v>653</v>
       </c>
       <c r="F80" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>744.2</v>
+        <v>653</v>
       </c>
       <c r="G80" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>643.4</v>
+        <v>533</v>
       </c>
       <c r="H80" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>643.4</v>
+        <v>533</v>
       </c>
       <c r="I80" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>801.8</v>
+        <v>691.4</v>
       </c>
       <c r="J80" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>801.8</v>
+        <v>691.4</v>
       </c>
       <c r="K80" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>677</v>
+        <v>849.8</v>
       </c>
       <c r="L80" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>677</v>
+        <v>849.8</v>
       </c>
       <c r="AJ80" s="1">
         <v>480</v>
@@ -5885,54 +5885,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.26</v>
+        <v>0.71</v>
       </c>
       <c r="B81" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.92</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C81" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="D81" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.77</v>
+        <v>0.11</v>
       </c>
       <c r="E81" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>633.79999999999995</v>
+        <v>849.8</v>
       </c>
       <c r="F81" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>633.79999999999995</v>
+        <v>849.8</v>
       </c>
       <c r="G81" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>950.6</v>
+        <v>648.20000000000005</v>
       </c>
       <c r="H81" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>950.6</v>
+        <v>648.20000000000005</v>
       </c>
       <c r="I81" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>873.8</v>
+        <v>989</v>
       </c>
       <c r="J81" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>873.8</v>
+        <v>989</v>
       </c>
       <c r="K81" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>878.6</v>
+        <v>561.79999999999995</v>
       </c>
       <c r="L81" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>878.6</v>
+        <v>561.79999999999995</v>
       </c>
       <c r="AJ81" s="1">
         <v>480</v>
@@ -5941,54 +5941,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.62</v>
+        <v>0.11</v>
       </c>
       <c r="B82" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="C82" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="D82" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="E82" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>806.6</v>
+        <v>561.79999999999995</v>
       </c>
       <c r="F82" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>806.6</v>
+        <v>561.79999999999995</v>
       </c>
       <c r="G82" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>917</v>
+        <v>945.8</v>
       </c>
       <c r="H82" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>917</v>
+        <v>945.8</v>
       </c>
       <c r="I82" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>893</v>
+        <v>897.8</v>
       </c>
       <c r="J82" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>893</v>
+        <v>897.8</v>
       </c>
       <c r="K82" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>585.79999999999995</v>
+        <v>624.20000000000005</v>
       </c>
       <c r="L82" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>585.79999999999995</v>
+        <v>624.20000000000005</v>
       </c>
       <c r="AJ82" s="1">
         <v>480</v>
@@ -5997,54 +5997,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.77</v>
+        <v>0.32</v>
       </c>
       <c r="B83" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.04</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C83" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.78</v>
+        <v>0.47</v>
       </c>
       <c r="D83" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.96</v>
+        <v>0.09</v>
       </c>
       <c r="E83" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>878.6</v>
+        <v>662.6</v>
       </c>
       <c r="F83" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>878.6</v>
+        <v>662.6</v>
       </c>
       <c r="G83" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>528.20000000000005</v>
+        <v>576.20000000000005</v>
       </c>
       <c r="H83" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>528.20000000000005</v>
+        <v>576.20000000000005</v>
       </c>
       <c r="I83" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>883.40000000000009</v>
+        <v>734.6</v>
       </c>
       <c r="J83" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>883.40000000000009</v>
+        <v>734.6</v>
       </c>
       <c r="K83" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>969.8</v>
+        <v>552.20000000000005</v>
       </c>
       <c r="L83" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>969.8</v>
+        <v>552.20000000000005</v>
       </c>
       <c r="AJ83" s="1">
         <v>480</v>
@@ -6053,14 +6053,14 @@
         <v>509</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.83</v>
+        <v>0.41</v>
       </c>
       <c r="B84" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="C84" s="4">
         <f t="shared" ca="1" si="11"/>
@@ -6068,23 +6068,23 @@
       </c>
       <c r="D84" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="E84" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>907.4</v>
+        <v>705.8</v>
       </c>
       <c r="F84" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>907.4</v>
+        <v>705.8</v>
       </c>
       <c r="G84" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>864.2</v>
+        <v>888.2</v>
       </c>
       <c r="H84" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>864.2</v>
+        <v>888.2</v>
       </c>
       <c r="I84" s="5">
         <f t="shared" ca="1" si="16"/>
@@ -6096,11 +6096,11 @@
       </c>
       <c r="K84" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>979.4</v>
+        <v>965</v>
       </c>
       <c r="L84" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>979.4</v>
+        <v>965</v>
       </c>
       <c r="AJ84" s="1">
         <v>480</v>
@@ -6109,54 +6109,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.7</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B85" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.35</v>
+        <v>0.66</v>
       </c>
       <c r="C85" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.7</v>
+        <v>0.41</v>
       </c>
       <c r="D85" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="E85" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>845</v>
+        <v>643.4</v>
       </c>
       <c r="F85" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>845</v>
+        <v>643.4</v>
       </c>
       <c r="G85" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>677</v>
+        <v>825.8</v>
       </c>
       <c r="H85" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>677</v>
+        <v>825.8</v>
       </c>
       <c r="I85" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>845</v>
+        <v>705.8</v>
       </c>
       <c r="J85" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>845</v>
+        <v>705.8</v>
       </c>
       <c r="K85" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>691.4</v>
+        <v>701</v>
       </c>
       <c r="L85" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>691.4</v>
+        <v>701</v>
       </c>
       <c r="AJ85" s="1">
         <v>480</v>
@@ -6165,54 +6165,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.21</v>
+        <v>0.69</v>
       </c>
       <c r="B86" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.43</v>
+        <v>0.17</v>
       </c>
       <c r="C86" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.63</v>
+        <v>0.3</v>
       </c>
       <c r="D86" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.49</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E86" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>609.79999999999995</v>
+        <v>840.2</v>
       </c>
       <c r="F86" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>609.79999999999995</v>
+        <v>840.2</v>
       </c>
       <c r="G86" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>715.4</v>
+        <v>590.6</v>
       </c>
       <c r="H86" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>715.4</v>
+        <v>590.6</v>
       </c>
       <c r="I86" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>811.4</v>
+        <v>653</v>
       </c>
       <c r="J86" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>811.4</v>
+        <v>653</v>
       </c>
       <c r="K86" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>744.2</v>
+        <v>643.4</v>
       </c>
       <c r="L86" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>744.2</v>
+        <v>643.4</v>
       </c>
       <c r="AJ86" s="1">
         <v>480</v>
@@ -6221,54 +6221,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.66</v>
+        <v>0.88</v>
       </c>
       <c r="B87" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.99</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C87" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="D87" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.03</v>
+        <v>0.94</v>
       </c>
       <c r="E87" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>825.8</v>
+        <v>931.4</v>
       </c>
       <c r="F87" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>825.8</v>
+        <v>931.4</v>
       </c>
       <c r="G87" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>984.2</v>
+        <v>777.8</v>
       </c>
       <c r="H87" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>984.2</v>
+        <v>777.8</v>
       </c>
       <c r="I87" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>854.59999999999991</v>
+        <v>907.4</v>
       </c>
       <c r="J87" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>854.59999999999991</v>
+        <v>907.4</v>
       </c>
       <c r="K87" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>523.4</v>
+        <v>960.2</v>
       </c>
       <c r="L87" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>523.4</v>
+        <v>960.2</v>
       </c>
       <c r="AJ87" s="1">
         <v>480</v>
@@ -6277,54 +6277,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="B88" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.56000000000000005</v>
+        <v>0.26</v>
       </c>
       <c r="C88" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.59</v>
+        <v>0.13</v>
       </c>
       <c r="D88" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="E88" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>955.40000000000009</v>
+        <v>950.6</v>
       </c>
       <c r="F88" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>955.40000000000009</v>
+        <v>950.6</v>
       </c>
       <c r="G88" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>777.8</v>
+        <v>633.79999999999995</v>
       </c>
       <c r="H88" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>777.8</v>
+        <v>633.79999999999995</v>
       </c>
       <c r="I88" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>792.2</v>
+        <v>571.4</v>
       </c>
       <c r="J88" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>792.2</v>
+        <v>571.4</v>
       </c>
       <c r="K88" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>715.4</v>
+        <v>725</v>
       </c>
       <c r="L88" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>715.4</v>
+        <v>725</v>
       </c>
       <c r="AJ88" s="1">
         <v>480</v>
@@ -6333,54 +6333,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="B89" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.53</v>
+        <v>0.98</v>
       </c>
       <c r="C89" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.56999999999999995</v>
+        <v>0.32</v>
       </c>
       <c r="D89" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="E89" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>518.6</v>
+        <v>605</v>
       </c>
       <c r="F89" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>518.6</v>
+        <v>605</v>
       </c>
       <c r="G89" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>763.4</v>
+        <v>979.4</v>
       </c>
       <c r="H89" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>763.4</v>
+        <v>979.4</v>
       </c>
       <c r="I89" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>782.59999999999991</v>
+        <v>662.6</v>
       </c>
       <c r="J89" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>782.59999999999991</v>
+        <v>662.6</v>
       </c>
       <c r="K89" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>797</v>
+        <v>883.40000000000009</v>
       </c>
       <c r="L89" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>797</v>
+        <v>883.40000000000009</v>
       </c>
       <c r="AJ89" s="1">
         <v>480</v>
@@ -6389,18 +6389,18 @@
         <v>509</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.77</v>
+        <v>0.15</v>
       </c>
       <c r="B90" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="C90" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.06</v>
+        <v>0.54</v>
       </c>
       <c r="D90" s="4">
         <f t="shared" ca="1" si="11"/>
@@ -6408,27 +6408,27 @@
       </c>
       <c r="E90" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>878.6</v>
+        <v>581</v>
       </c>
       <c r="F90" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>878.6</v>
+        <v>581</v>
       </c>
       <c r="G90" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>869</v>
+        <v>921.8</v>
       </c>
       <c r="H90" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>869</v>
+        <v>921.8</v>
       </c>
       <c r="I90" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>537.79999999999995</v>
+        <v>768.2</v>
       </c>
       <c r="J90" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>537.79999999999995</v>
+        <v>768.2</v>
       </c>
       <c r="K90" s="5">
         <f t="shared" ca="1" si="18"/>
@@ -6445,54 +6445,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86</v>
+        <v>0.74</v>
       </c>
       <c r="B91" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.44</v>
+        <v>0.88</v>
       </c>
       <c r="C91" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="D91" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.63</v>
+        <v>0.13</v>
       </c>
       <c r="E91" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>921.8</v>
+        <v>864.2</v>
       </c>
       <c r="F91" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>921.8</v>
+        <v>864.2</v>
       </c>
       <c r="G91" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>720.2</v>
+        <v>931.4</v>
       </c>
       <c r="H91" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>720.2</v>
+        <v>931.4</v>
       </c>
       <c r="I91" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>677</v>
+        <v>557</v>
       </c>
       <c r="J91" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>677</v>
+        <v>557</v>
       </c>
       <c r="K91" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>811.4</v>
+        <v>571.4</v>
       </c>
       <c r="L91" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>811.4</v>
+        <v>571.4</v>
       </c>
       <c r="AJ91" s="1">
         <v>480</v>
@@ -6501,10 +6501,10 @@
         <v>509</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.87</v>
+        <v>0.73</v>
       </c>
       <c r="B92" s="4">
         <f t="shared" ca="1" si="11"/>
@@ -6512,19 +6512,19 @@
       </c>
       <c r="C92" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.14000000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="D92" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.77</v>
+        <v>0.24</v>
       </c>
       <c r="E92" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>926.6</v>
+        <v>859.4</v>
       </c>
       <c r="F92" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>926.6</v>
+        <v>859.4</v>
       </c>
       <c r="G92" s="5">
         <f t="shared" ca="1" si="14"/>
@@ -6536,19 +6536,19 @@
       </c>
       <c r="I92" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>576.20000000000005</v>
+        <v>917</v>
       </c>
       <c r="J92" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>576.20000000000005</v>
+        <v>917</v>
       </c>
       <c r="K92" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>878.6</v>
+        <v>624.20000000000005</v>
       </c>
       <c r="L92" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>878.6</v>
+        <v>624.20000000000005</v>
       </c>
       <c r="AJ92" s="1">
         <v>480</v>
@@ -6557,54 +6557,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.35</v>
+        <v>0.98</v>
       </c>
       <c r="B93" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.18</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C93" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.82</v>
+        <v>0.95</v>
       </c>
       <c r="D93" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.17</v>
+        <v>0.86</v>
       </c>
       <c r="E93" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>677</v>
+        <v>979.4</v>
       </c>
       <c r="F93" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>677</v>
+        <v>979.4</v>
       </c>
       <c r="G93" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>595.4</v>
+        <v>782.59999999999991</v>
       </c>
       <c r="H93" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>595.4</v>
+        <v>782.59999999999991</v>
       </c>
       <c r="I93" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>902.59999999999991</v>
+        <v>965</v>
       </c>
       <c r="J93" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>902.59999999999991</v>
+        <v>965</v>
       </c>
       <c r="K93" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>590.6</v>
+        <v>921.8</v>
       </c>
       <c r="L93" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>590.6</v>
+        <v>921.8</v>
       </c>
       <c r="AJ93" s="1">
         <v>480</v>
@@ -6613,54 +6613,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.59</v>
+        <v>0.9</v>
       </c>
       <c r="B94" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.78</v>
+        <v>0.52</v>
       </c>
       <c r="C94" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.81</v>
+        <v>0.25</v>
       </c>
       <c r="D94" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.15</v>
+        <v>0.61</v>
       </c>
       <c r="E94" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>792.2</v>
+        <v>941</v>
       </c>
       <c r="F94" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>792.2</v>
+        <v>941</v>
       </c>
       <c r="G94" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>883.40000000000009</v>
+        <v>758.6</v>
       </c>
       <c r="H94" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>883.40000000000009</v>
+        <v>758.6</v>
       </c>
       <c r="I94" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>897.8</v>
+        <v>629</v>
       </c>
       <c r="J94" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>897.8</v>
+        <v>629</v>
       </c>
       <c r="K94" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>581</v>
+        <v>801.8</v>
       </c>
       <c r="L94" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>581</v>
+        <v>801.8</v>
       </c>
       <c r="AJ94" s="1">
         <v>480</v>
@@ -6669,54 +6669,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.17</v>
+        <v>0.6</v>
       </c>
       <c r="B95" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.63</v>
+        <v>0.81</v>
       </c>
       <c r="C95" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.37</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D95" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.9</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E95" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>590.6</v>
+        <v>797</v>
       </c>
       <c r="F95" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>590.6</v>
+        <v>797</v>
       </c>
       <c r="G95" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>811.4</v>
+        <v>897.8</v>
       </c>
       <c r="H95" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>811.4</v>
+        <v>897.8</v>
       </c>
       <c r="I95" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>686.6</v>
+        <v>648.20000000000005</v>
       </c>
       <c r="J95" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>686.6</v>
+        <v>648.20000000000005</v>
       </c>
       <c r="K95" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>941</v>
+        <v>787.4</v>
       </c>
       <c r="L95" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>941</v>
+        <v>787.4</v>
       </c>
       <c r="AJ95" s="1">
         <v>480</v>
@@ -6725,54 +6725,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.78</v>
       </c>
       <c r="B96" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.25</v>
+        <v>0.65</v>
       </c>
       <c r="C96" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
       <c r="D96" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.81</v>
+        <v>0.6</v>
       </c>
       <c r="E96" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>542.6</v>
+        <v>883.40000000000009</v>
       </c>
       <c r="F96" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>542.6</v>
+        <v>883.40000000000009</v>
       </c>
       <c r="G96" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>629</v>
+        <v>821</v>
       </c>
       <c r="H96" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>629</v>
+        <v>821</v>
       </c>
       <c r="I96" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>921.8</v>
+        <v>816.2</v>
       </c>
       <c r="J96" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>921.8</v>
+        <v>816.2</v>
       </c>
       <c r="K96" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>897.8</v>
+        <v>797</v>
       </c>
       <c r="L96" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>897.8</v>
+        <v>797</v>
       </c>
       <c r="AJ96" s="1">
         <v>480</v>
@@ -6781,54 +6781,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B97" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="C97" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="D97" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.37</v>
+        <v>0.76</v>
       </c>
       <c r="E97" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>605</v>
+        <v>643.4</v>
       </c>
       <c r="F97" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>605</v>
+        <v>643.4</v>
       </c>
       <c r="G97" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>744.2</v>
+        <v>667.4</v>
       </c>
       <c r="H97" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>744.2</v>
+        <v>667.4</v>
       </c>
       <c r="I97" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>936.2</v>
+        <v>883.40000000000009</v>
       </c>
       <c r="J97" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>936.2</v>
+        <v>883.40000000000009</v>
       </c>
       <c r="K97" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>686.6</v>
+        <v>873.8</v>
       </c>
       <c r="L97" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>686.6</v>
+        <v>873.8</v>
       </c>
       <c r="AJ97" s="1">
         <v>480</v>
@@ -6837,54 +6837,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.82</v>
+        <v>0.69</v>
       </c>
       <c r="B98" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.64</v>
+        <v>0.09</v>
       </c>
       <c r="C98" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.14000000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="D98" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.87</v>
+        <v>0.49</v>
       </c>
       <c r="E98" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>902.59999999999991</v>
+        <v>840.2</v>
       </c>
       <c r="F98" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>902.59999999999991</v>
+        <v>840.2</v>
       </c>
       <c r="G98" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>816.2</v>
+        <v>552.20000000000005</v>
       </c>
       <c r="H98" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>816.2</v>
+        <v>552.20000000000005</v>
       </c>
       <c r="I98" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>576.20000000000005</v>
+        <v>763.4</v>
       </c>
       <c r="J98" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>576.20000000000005</v>
+        <v>763.4</v>
       </c>
       <c r="K98" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>926.6</v>
+        <v>744.2</v>
       </c>
       <c r="L98" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>926.6</v>
+        <v>744.2</v>
       </c>
       <c r="AJ98" s="1">
         <v>480</v>
@@ -6893,10 +6893,10 @@
         <v>509</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="B99" s="4">
         <f t="shared" ca="1" si="11"/>
@@ -6904,19 +6904,19 @@
       </c>
       <c r="C99" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="D99" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.73</v>
+        <v>0.65</v>
       </c>
       <c r="E99" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>633.79999999999995</v>
+        <v>547.4</v>
       </c>
       <c r="F99" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>633.79999999999995</v>
+        <v>547.4</v>
       </c>
       <c r="G99" s="5">
         <f t="shared" ca="1" si="14"/>
@@ -6928,19 +6928,19 @@
       </c>
       <c r="I99" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>921.8</v>
+        <v>941</v>
       </c>
       <c r="J99" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>921.8</v>
+        <v>941</v>
       </c>
       <c r="K99" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>859.4</v>
+        <v>821</v>
       </c>
       <c r="L99" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>859.4</v>
+        <v>821</v>
       </c>
       <c r="AJ99" s="1">
         <v>480</v>
@@ -6949,54 +6949,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.61</v>
+        <v>0.02</v>
       </c>
       <c r="B100" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.88</v>
+        <v>0.76</v>
       </c>
       <c r="C100" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="D100" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="E100" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>801.8</v>
+        <v>518.6</v>
       </c>
       <c r="F100" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>801.8</v>
+        <v>518.6</v>
       </c>
       <c r="G100" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>931.4</v>
+        <v>873.8</v>
       </c>
       <c r="H100" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>931.4</v>
+        <v>873.8</v>
       </c>
       <c r="I100" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>624.20000000000005</v>
+        <v>605</v>
       </c>
       <c r="J100" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>624.20000000000005</v>
+        <v>605</v>
       </c>
       <c r="K100" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>926.6</v>
+        <v>902.59999999999991</v>
       </c>
       <c r="L100" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>926.6</v>
+        <v>902.59999999999991</v>
       </c>
       <c r="AJ100" s="1">
         <v>480</v>
@@ -7005,54 +7005,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="B101" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.94</v>
+        <v>0.86</v>
       </c>
       <c r="C101" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="D101" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.08</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E101" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>657.8</v>
+        <v>600.20000000000005</v>
       </c>
       <c r="F101" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>657.8</v>
+        <v>600.20000000000005</v>
       </c>
       <c r="G101" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>960.2</v>
+        <v>921.8</v>
       </c>
       <c r="H101" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>960.2</v>
+        <v>921.8</v>
       </c>
       <c r="I101" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>797</v>
+        <v>835.40000000000009</v>
       </c>
       <c r="J101" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>797</v>
+        <v>835.40000000000009</v>
       </c>
       <c r="K101" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>547.4</v>
+        <v>643.4</v>
       </c>
       <c r="L101" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>547.4</v>
+        <v>643.4</v>
       </c>
       <c r="AJ101" s="1">
         <v>480</v>
@@ -7061,54 +7061,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <f t="shared" ref="A102:D109" ca="1" si="20">RANDBETWEEN(0,100)/100</f>
-        <v>0.77</v>
+        <v>0.35</v>
       </c>
       <c r="B102" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.69</v>
+        <v>0.54</v>
       </c>
       <c r="C102" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="D102" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.77</v>
+        <v>0.45</v>
       </c>
       <c r="E102" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>878.6</v>
+        <v>677</v>
       </c>
       <c r="F102" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>878.6</v>
+        <v>677</v>
       </c>
       <c r="G102" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>840.2</v>
+        <v>768.2</v>
       </c>
       <c r="H102" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>840.2</v>
+        <v>768.2</v>
       </c>
       <c r="I102" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>845</v>
+        <v>955.40000000000009</v>
       </c>
       <c r="J102" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>845</v>
+        <v>955.40000000000009</v>
       </c>
       <c r="K102" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>878.6</v>
+        <v>725</v>
       </c>
       <c r="L102" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>878.6</v>
+        <v>725</v>
       </c>
       <c r="AJ102" s="1">
         <v>480</v>
@@ -7117,54 +7117,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.06</v>
+        <v>0.45</v>
       </c>
       <c r="B103" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.28999999999999998</v>
+        <v>0.84</v>
       </c>
       <c r="C103" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.57999999999999996</v>
+        <v>0.03</v>
       </c>
       <c r="D103" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.54</v>
+        <v>0.1</v>
       </c>
       <c r="E103" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>537.79999999999995</v>
+        <v>725</v>
       </c>
       <c r="F103" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>537.79999999999995</v>
+        <v>725</v>
       </c>
       <c r="G103" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>648.20000000000005</v>
+        <v>912.2</v>
       </c>
       <c r="H103" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>648.20000000000005</v>
+        <v>912.2</v>
       </c>
       <c r="I103" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>787.4</v>
+        <v>523.4</v>
       </c>
       <c r="J103" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>787.4</v>
+        <v>523.4</v>
       </c>
       <c r="K103" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>768.2</v>
+        <v>557</v>
       </c>
       <c r="L103" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>768.2</v>
+        <v>557</v>
       </c>
       <c r="AJ103" s="1">
         <v>480</v>
@@ -7173,54 +7173,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="B104" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.16</v>
+        <v>0.64</v>
       </c>
       <c r="C104" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.78</v>
+        <v>0.19</v>
       </c>
       <c r="D104" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.04</v>
+        <v>0.89</v>
       </c>
       <c r="E104" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>883.40000000000009</v>
+        <v>864.2</v>
       </c>
       <c r="F104" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>883.40000000000009</v>
+        <v>864.2</v>
       </c>
       <c r="G104" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>585.79999999999995</v>
+        <v>816.2</v>
       </c>
       <c r="H104" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>585.79999999999995</v>
+        <v>816.2</v>
       </c>
       <c r="I104" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>883.40000000000009</v>
+        <v>600.20000000000005</v>
       </c>
       <c r="J104" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>883.40000000000009</v>
+        <v>600.20000000000005</v>
       </c>
       <c r="K104" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>528.20000000000005</v>
+        <v>936.2</v>
       </c>
       <c r="L104" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>528.20000000000005</v>
+        <v>936.2</v>
       </c>
       <c r="AJ104" s="1">
         <v>480</v>
@@ -7229,54 +7229,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.27</v>
+        <v>0.51</v>
       </c>
       <c r="B105" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.52</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C105" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.86</v>
+        <v>0.08</v>
       </c>
       <c r="D105" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="E105" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>638.6</v>
+        <v>753.8</v>
       </c>
       <c r="F105" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>638.6</v>
+        <v>753.8</v>
       </c>
       <c r="G105" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>758.6</v>
+        <v>576.20000000000005</v>
       </c>
       <c r="H105" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>758.6</v>
+        <v>576.20000000000005</v>
       </c>
       <c r="I105" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>921.8</v>
+        <v>547.4</v>
       </c>
       <c r="J105" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>921.8</v>
+        <v>547.4</v>
       </c>
       <c r="K105" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>691.4</v>
+        <v>715.4</v>
       </c>
       <c r="L105" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>691.4</v>
+        <v>715.4</v>
       </c>
       <c r="AJ105" s="1">
         <v>480</v>
@@ -7285,54 +7285,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.04</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="B106" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.65</v>
+        <v>0.23</v>
       </c>
       <c r="C106" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.7</v>
+        <v>0.43</v>
       </c>
       <c r="D106" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.66</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E106" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>528.20000000000005</v>
+        <v>648.20000000000005</v>
       </c>
       <c r="F106" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>528.20000000000005</v>
+        <v>648.20000000000005</v>
       </c>
       <c r="G106" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>821</v>
+        <v>619.4</v>
       </c>
       <c r="H106" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>821</v>
+        <v>619.4</v>
       </c>
       <c r="I106" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>845</v>
+        <v>715.4</v>
       </c>
       <c r="J106" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>845</v>
+        <v>715.4</v>
       </c>
       <c r="K106" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>825.8</v>
+        <v>773</v>
       </c>
       <c r="L106" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>825.8</v>
+        <v>773</v>
       </c>
       <c r="AJ106" s="1">
         <v>480</v>
@@ -7341,22 +7341,22 @@
         <v>509</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <f t="shared" ca="1" si="20"/>
         <v>0.68</v>
       </c>
       <c r="B107" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="C107" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.85</v>
+        <v>0.16</v>
       </c>
       <c r="D107" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="E107" s="5">
         <f t="shared" ca="1" si="12"/>
@@ -7368,27 +7368,27 @@
       </c>
       <c r="G107" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>979.4</v>
+        <v>907.4</v>
       </c>
       <c r="H107" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>979.4</v>
+        <v>907.4</v>
       </c>
       <c r="I107" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>917</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="J107" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>917</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="K107" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>557</v>
+        <v>725</v>
       </c>
       <c r="L107" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>557</v>
+        <v>725</v>
       </c>
       <c r="AJ107" s="1">
         <v>480</v>
@@ -7397,54 +7397,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.01</v>
+        <v>0.69</v>
       </c>
       <c r="B108" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.35</v>
+        <v>0.79</v>
       </c>
       <c r="C108" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="D108" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.19</v>
+        <v>0.68</v>
       </c>
       <c r="E108" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>513.79999999999995</v>
+        <v>840.2</v>
       </c>
       <c r="F108" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>513.79999999999995</v>
+        <v>840.2</v>
       </c>
       <c r="G108" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>677</v>
+        <v>888.2</v>
       </c>
       <c r="H108" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>677</v>
+        <v>888.2</v>
       </c>
       <c r="I108" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>917</v>
+        <v>792.2</v>
       </c>
       <c r="J108" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>917</v>
+        <v>792.2</v>
       </c>
       <c r="K108" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>600.20000000000005</v>
+        <v>835.40000000000009</v>
       </c>
       <c r="L108" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>600.20000000000005</v>
+        <v>835.40000000000009</v>
       </c>
       <c r="AJ108" s="1">
         <v>480</v>
@@ -7453,54 +7453,54 @@
         <v>509</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.59</v>
+        <v>0.95</v>
       </c>
       <c r="B109" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.59</v>
+        <v>0.77</v>
       </c>
       <c r="C109" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="D109" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="E109" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>792.2</v>
+        <v>965</v>
       </c>
       <c r="F109" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>792.2</v>
+        <v>965</v>
       </c>
       <c r="G109" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>792.2</v>
+        <v>878.6</v>
       </c>
       <c r="H109" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>792.2</v>
+        <v>878.6</v>
       </c>
       <c r="I109" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.79999999999995</v>
+        <v>537.79999999999995</v>
       </c>
       <c r="J109" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>561.79999999999995</v>
+        <v>537.79999999999995</v>
       </c>
       <c r="K109" s="5">
         <f t="shared" ca="1" si="18"/>
-        <v>614.6</v>
+        <v>629</v>
       </c>
       <c r="L109" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>614.6</v>
+        <v>629</v>
       </c>
       <c r="AJ109" s="1">
         <v>480</v>
@@ -7509,7 +7509,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AJ110" s="1">
         <v>480</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AJ111" s="1">
         <v>480</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AJ112" s="1">
         <v>480</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="113" spans="36:37" x14ac:dyDescent="0.35">
+    <row r="113" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ113" s="1">
         <v>480</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="114" spans="36:37" x14ac:dyDescent="0.35">
+    <row r="114" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ114" s="1">
         <v>480</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="115" spans="36:37" x14ac:dyDescent="0.35">
+    <row r="115" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ115" s="1">
         <v>480</v>
       </c>
